--- a/system_info.xlsx
+++ b/system_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,6 +526,47 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Name                                            
+11th Gen Intel(R) Core(TM) i5-1135G7 @ 2.40GHz, 15GB, 951GB</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Seavmey.Yem</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>PF35B1Y3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20X3007CFQ</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>LENOVO</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>PNCL075</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/system_info.xlsx
+++ b/system_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,7 +437,7 @@
     <col width="111" customWidth="1" min="2" max="2"/>
     <col width="21" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="21" customWidth="1" min="6" max="6"/>
     <col width="11" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
@@ -491,33 +491,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Name                                            
-11th Gen Intel(R) Core(TM) i5-1135G7 @ 2.40GHz, 15GB, 951GB</t>
+          <t>Name                                      
+Intel(R) Core(TM) i5-8265U CPU @ 1.60GHz, 15GB, 475GB</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Seavmey.Yem</t>
+          <t>Bopha.Khat</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PF35B1Y3</t>
+          <t>FK0N1W2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20X3007CFQ</t>
+          <t>Inspiron 3480</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>LENOVO</t>
+          <t>Dell Inc.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>PNCL075</t>
+          <t>PNCL009</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -562,6 +562,252 @@
         </is>
       </c>
       <c r="H3" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Name                                            
+11th Gen Intel(R) Core(TM) i5-1135G7 @ 2.40GHz, 15GB, 951GB</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Seavmey.Yem</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>PF35B1Y3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20X3007CFQ</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LENOVO</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>PNCL075</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Name                                            
+11th Gen Intel(R) Core(TM) i5-1135G7 @ 2.40GHz, 15GB, 951GB</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Seavmey.Yem</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>PF35B1Y3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20X3007CFQ</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LENOVO</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>PNCL075</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Name                                            
+11th Gen Intel(R) Core(TM) i5-1135G7 @ 2.40GHz, 15GB, 951GB</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Seavmey.Yem</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>PF35B1Y3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20X3007CFQ</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>LENOVO</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>PNCL075</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Name                                            
+11th Gen Intel(R) Core(TM) i5-1135G7 @ 2.40GHz, 15GB, 951GB</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Seavmey.Yem</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>PF35B1Y3</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20X3007CFQ</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>LENOVO</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>PNCL075</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Name                                            
+11th Gen Intel(R) Core(TM) i5-1135G7 @ 2.40GHz, 15GB, 951GB</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Seavmey.Yem</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PF35B1Y3</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20X3007CFQ</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>LENOVO</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>PNCL075</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Name                                            
+11th Gen Intel(R) Core(TM) i5-1135G7 @ 2.40GHz, 15GB, 951GB</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Seavmey.Yem</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PF35B1Y3</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20X3007CFQ</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>LENOVO</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>PNCL075</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Optional</t>
         </is>

--- a/system_info.xlsx
+++ b/system_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -813,6 +813,47 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Name                                            
+11th Gen Intel(R) Core(TM) i5-1135G7 @ 2.40GHz, 15GB, 951GB</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Seavmey.Yem</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PF35B1Y3</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20X3007CFQ</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LENOVO</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>PNCL075</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
